--- a/results/mp/logistic/corona/confidence/84/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,63 +40,69 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>shit</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>demand</t>
   </si>
   <si>
@@ -115,102 +121,102 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>good</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>giving</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
@@ -223,7 +229,13 @@
     <t>protect</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>corona</t>
@@ -584,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,10 +604,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -653,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.815068493150685</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C3">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -671,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K3">
-        <v>0.9322033898305084</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -695,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -703,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.8013698630136986</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -721,19 +733,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K4">
-        <v>0.9230769230769231</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -745,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -774,16 +786,16 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -795,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -803,13 +815,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7894736842105263</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -821,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -845,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -853,13 +865,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7692307692307693</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -871,19 +883,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>0.8392857142857143</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -895,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -903,13 +915,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -921,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.8198433420365535</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>314</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>314</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -945,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>69</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -953,13 +965,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7586206896551724</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -971,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.8113207547169812</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L9">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="M9">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -995,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1003,13 +1015,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7297297297297297</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1021,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.8224543080939948</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>315</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>315</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1045,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1053,13 +1065,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1071,10 +1083,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>0.8048780487804879</v>
@@ -1103,13 +1115,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5932203389830508</v>
+        <v>0.544973544973545</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1121,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.8028169014084507</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="M12">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1145,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1153,13 +1165,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5767195767195767</v>
+        <v>0.5387596899224806</v>
       </c>
       <c r="C13">
-        <v>109</v>
+        <v>278</v>
       </c>
       <c r="D13">
-        <v>109</v>
+        <v>278</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1171,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.796875</v>
+        <v>0.7734375</v>
       </c>
       <c r="L13">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M13">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1195,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1203,13 +1215,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5302013422818792</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C14">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1221,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.7878787878787878</v>
+        <v>0.76875</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1245,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1253,13 +1265,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5294117647058824</v>
+        <v>0.5100671140939598</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1271,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.7875</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L15">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1295,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1303,13 +1315,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5271317829457365</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C16">
-        <v>272</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>272</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1321,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>0.7857142857142857</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1345,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1353,13 +1365,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4266666666666667</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1371,19 +1383,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1395,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1403,13 +1415,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4181818181818182</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1421,19 +1433,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1445,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1474,16 +1486,16 @@
         <v>36</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>0.7659574468085106</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1503,13 +1515,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2888888888888889</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1521,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L20">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1545,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1553,28 +1565,28 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="C21">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>63</v>
       </c>
-      <c r="D21">
-        <v>63</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>189</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K21">
         <v>0.7142857142857143</v>
@@ -1603,13 +1615,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1849865951742627</v>
+        <v>0.2817460317460317</v>
       </c>
       <c r="C22">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1621,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>304</v>
+        <v>181</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K22">
         <v>0.7037037037037037</v>
@@ -1653,13 +1665,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07333333333333333</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1671,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>278</v>
+        <v>57</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K23">
         <v>0.6857142857142857</v>
@@ -1703,37 +1715,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01725625539257981</v>
+        <v>0.1715817694369973</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E24">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1139</v>
+        <v>309</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>0.675</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1745,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1753,37 +1765,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0145114479200258</v>
+        <v>0.1</v>
       </c>
       <c r="C25">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E25">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>3056</v>
+        <v>270</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K25">
-        <v>0.638235294117647</v>
+        <v>0.675</v>
       </c>
       <c r="L25">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1795,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1803,89 +1815,137 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01124121779859485</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D26">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>0.05</v>
+      </c>
+      <c r="F26">
+        <v>0.95</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1140</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="L26">
+        <v>220</v>
+      </c>
+      <c r="M26">
+        <v>220</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E26">
-        <v>0.25</v>
-      </c>
-      <c r="F26">
-        <v>0.75</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>2111</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26">
-        <v>0.6279069767441861</v>
-      </c>
-      <c r="L26">
-        <v>27</v>
-      </c>
-      <c r="M26">
-        <v>27</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="B27">
+        <v>0.01514663229133097</v>
+      </c>
+      <c r="C27">
+        <v>47</v>
+      </c>
+      <c r="D27">
+        <v>51</v>
+      </c>
+      <c r="E27">
+        <v>0.08</v>
+      </c>
+      <c r="F27">
+        <v>0.92</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>3056</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K27">
-        <v>0.6067796610169491</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L27">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M27">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.0107728337236534</v>
+      </c>
+      <c r="C28">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>31</v>
+      </c>
+      <c r="E28">
+        <v>0.26</v>
+      </c>
+      <c r="F28">
+        <v>0.74</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>2112</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K28">
-        <v>0.606694560669456</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L28">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M28">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1897,21 +1957,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K29">
-        <v>0.6060606060606061</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1923,21 +1983,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K30">
-        <v>0.6</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1949,21 +2009,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K31">
-        <v>0.5692307692307692</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1975,21 +2035,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K32">
-        <v>0.5638297872340425</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L32">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M32">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2001,21 +2061,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K33">
-        <v>0.5617977528089888</v>
+        <v>0.54</v>
       </c>
       <c r="L33">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2027,21 +2087,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K34">
-        <v>0.5571428571428572</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L34">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M34">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2053,12 +2113,12 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K35">
         <v>0.4761904761904762</v>
@@ -2084,16 +2144,16 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K36">
-        <v>0.4313725490196079</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2105,12 +2165,12 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K37">
         <v>0.4222222222222222</v>
@@ -2136,16 +2196,16 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K38">
-        <v>0.3835616438356164</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L38">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M38">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2157,21 +2217,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K39">
-        <v>0.3205128205128205</v>
+        <v>0.375</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2183,33 +2243,85 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K40">
-        <v>0.01033187226048842</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M40">
+        <v>27</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K41">
+        <v>0.3220338983050847</v>
+      </c>
+      <c r="L41">
+        <v>19</v>
+      </c>
+      <c r="M41">
+        <v>19</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>40</v>
       </c>
-      <c r="N40">
-        <v>0.82</v>
-      </c>
-      <c r="O40">
-        <v>0.18</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>3161</v>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K42">
+        <v>0.009410288582183186</v>
+      </c>
+      <c r="L42">
+        <v>30</v>
+      </c>
+      <c r="M42">
+        <v>43</v>
+      </c>
+      <c r="N42">
+        <v>0.7</v>
+      </c>
+      <c r="O42">
+        <v>0.3</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>3158</v>
       </c>
     </row>
   </sheetData>
